--- a/data/income_statement/3digits/total/143_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/143_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>143-Manufacture of knitted and crocheted apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>143-Manufacture of knitted and crocheted apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3268007.55308</v>
@@ -959,34 +865,39 @@
         <v>4733923.94962</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4932111.51103</v>
+        <v>4994824.56779</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5970457.47389</v>
+        <v>5970457.473889999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6773021.836159999</v>
+        <v>6820264.299810001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7555923.822170001</v>
+        <v>7598654.7903</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8512322.088550001</v>
+        <v>8526753.940809999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>10644947.56754</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14551277.93801</v>
+        <v>14566424.64759</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16363753.33227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16477174.16995</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18380472.894</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2236945.88808</v>
@@ -998,34 +909,39 @@
         <v>3305931.49955</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3633829.83967</v>
+        <v>3695393.35271</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>4461510.92359</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5034968.7566</v>
+        <v>5081041.521029999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5808419.37829</v>
+        <v>5841170.67386</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6604890.2763</v>
+        <v>6618308.39578</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8157869.462610001</v>
+        <v>8157869.46261</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10993382.72303</v>
+        <v>11006602.40177</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12146446.55586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12243338.70995</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13198200.859</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>995908.90199</v>
@@ -1037,34 +953,39 @@
         <v>1379830.37849</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1260838.05116</v>
+        <v>1261987.59488</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1461239.47182</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1688626.40368</v>
+        <v>1689750.73169</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1673794.81701</v>
+        <v>1683338.63433</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1800533.41783</v>
+        <v>1801486.19066</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2343814.84745</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3355817.08433</v>
+        <v>3357460.2385</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3978290.98945</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3994775.14794</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4869184.892</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>35152.76301</v>
@@ -1082,31 +1003,36 @@
         <v>47707.07848</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>49426.67588</v>
+        <v>49472.04708999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>73709.62687000001</v>
+        <v>74145.48211</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>106898.39442</v>
+        <v>106959.35437</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>143263.25748</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>202078.13065</v>
+        <v>202362.00732</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>239015.78696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>239060.31206</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>313087.143</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>73416.9604</v>
+        <v>73416.96040000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>77009.06678000001</v>
@@ -1115,34 +1041,39 @@
         <v>90630.42825</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>97014.90294999999</v>
+        <v>97014.90295</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>122306.09069</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>127418.58963</v>
+        <v>127540.75354</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>161366.77638</v>
+        <v>162134.28429</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>260335.89238</v>
+        <v>260347.46702</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>326243.76593</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>810822.21712</v>
+        <v>810925.8919200001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>448494.6846900001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>450878.06819</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>376575.035</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>32947.98359</v>
@@ -1154,34 +1085,39 @@
         <v>34915.78092</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>38888.21018</v>
+        <v>38888.21017999999</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>50756.13869</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>56762.68779</v>
+        <v>56881.89798</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>73516.27611000001</v>
+        <v>74210.10649000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>169204.5781</v>
+        <v>169214.8221</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>227445.76973</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>680198.5920800001</v>
+        <v>680273.65365</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>316441.3621799999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>318780.44349</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>257858.83</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>33550.01066</v>
@@ -1196,13 +1132,13 @@
         <v>50608.45211</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>62641.50948</v>
+        <v>62641.50947999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>57677.49804999999</v>
+        <v>57680.45176999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>74963.18264000001</v>
+        <v>74966.89089</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>71293.68067</v>
@@ -1211,16 +1147,21 @@
         <v>80792.96822999998</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>90249.26102000001</v>
+        <v>90276.05422000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>88680.80517000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>88687.45134999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>78419.626</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>6918.966149999999</v>
@@ -1241,25 +1182,30 @@
         <v>12978.40379</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12887.31763</v>
+        <v>12957.28691</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>19837.63361</v>
+        <v>19838.96425</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>18005.02797</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>40374.36401999999</v>
+        <v>40376.18405</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>43372.51734000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>43410.17335</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>40296.579</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3194590.59268</v>
@@ -1271,34 +1217,39 @@
         <v>4643293.52137</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4835096.60808</v>
+        <v>4897809.66484</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>5848151.3832</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6645603.24653</v>
+        <v>6692723.54627</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7394557.045789999</v>
+        <v>7436520.506010001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8251986.19617</v>
+        <v>8266406.47379</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10318703.80161</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13740455.72089</v>
+        <v>13755498.75567</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>15915258.64758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16026296.10176</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>18003897.859</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2727083.16094</v>
@@ -1310,34 +1261,39 @@
         <v>3909489.77204</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4152691.47054</v>
+        <v>4206490.853390001</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>4977307.36986</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5739455.16395</v>
+        <v>5784573.574869999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6292004.75442</v>
+        <v>6326818.57215</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7165481.44237</v>
+        <v>7178695.388610001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8899993.5691</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11441987.78883</v>
+        <v>11455730.55309</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13667414.66237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13775047.15821</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14875257.234</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2276835.76076</v>
@@ -1349,73 +1305,83 @@
         <v>3274385.28476</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3514875.85554</v>
+        <v>3567658.76239</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>4185165.94569</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4879976.239650001</v>
+        <v>4882380.87079</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5487449.777819999</v>
+        <v>5520125.48022</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6118943.18107</v>
+        <v>6129604.756949999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>7658637.7133</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9818909.16134</v>
+        <v>9828927.265290001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11942573.06808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12000704.07063</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>12930074.813</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>386951.87656</v>
+        <v>386951.8765600001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>457442.3480700001</v>
+        <v>457442.34807</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>526546.3471499999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>525109.94611</v>
+        <v>526126.42211</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>649482.72462</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>701293.39148</v>
+        <v>744007.17126</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>644960.1260599999</v>
+        <v>647097.0881500001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>852410.95537</v>
+        <v>854963.32573</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>996258.5846099999</v>
+        <v>996258.5846100001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1292386.00672</v>
+        <v>1293863.73477</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1331551.18543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1369709.1074</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1488733.521</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>56925.02831</v>
@@ -1445,16 +1411,21 @@
         <v>215758.14735</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>285947.8435</v>
+        <v>287981.51668</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>376054.40425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>387397.97557</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>422061.357</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>6370.49531</v>
@@ -1475,7 +1446,7 @@
         <v>11841.23146</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18036.78211</v>
+        <v>18037.93535</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>13769.80976</v>
@@ -1484,16 +1455,21 @@
         <v>29339.12384</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>44744.77727</v>
+        <v>44958.03635</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>17236.00461</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>34387.543</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>467507.43174</v>
@@ -1505,34 +1481,39 @@
         <v>733803.7493299999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>682405.1375399999</v>
+        <v>691318.81145</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>870844.0133400002</v>
+        <v>870844.0133400001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>906148.0825799999</v>
+        <v>908149.9713999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1102552.29137</v>
+        <v>1109701.93386</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1086504.7538</v>
+        <v>1087711.08518</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1418710.23251</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2298467.93206</v>
+        <v>2299768.20258</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2247843.98521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2251248.94355</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3128640.625</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>301876.52059</v>
@@ -1544,34 +1525,39 @@
         <v>381264.4653400001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>430766.97252</v>
+        <v>435602.32354</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>499696.8513</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>549786.5091400001</v>
+        <v>550760.419</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>586299.93353</v>
+        <v>590116.66385</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>652814.08129</v>
+        <v>653424.49144</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>725339.9802699999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>922124.7106100002</v>
+        <v>924328.32036</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1107885.25723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1113370.70648</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1211136.537</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>321.72799</v>
@@ -1604,13 +1590,18 @@
         <v>1007.77008</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1919.40537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1976.99125</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2853.181</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>113500.49793</v>
@@ -1622,34 +1613,39 @@
         <v>142402.17566</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>155172.2239</v>
+        <v>156153.31666</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>181133.9141</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>200035.5384</v>
+        <v>200274.37419</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>198781.07215</v>
+        <v>200084.54458</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>218614.55746</v>
+        <v>218758.37261</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>246819.26968</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>307663.9406</v>
+        <v>307933.30427</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>352727.30838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>352864.2279699999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>401901.012</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>188054.29467</v>
@@ -1661,34 +1657,39 @@
         <v>238433.58333</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>274560.23924</v>
+        <v>278414.4975</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>318080.47406</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>348599.08429</v>
+        <v>349334.15836</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>386573.80821</v>
+        <v>389087.0661</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>431925.66854</v>
+        <v>432392.26354</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>477519.8787000001</v>
+        <v>477519.8787</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>613452.99993</v>
+        <v>615387.24601</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>753238.54348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>758529.48726</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>806382.344</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>165630.91115</v>
@@ -1700,34 +1701,39 @@
         <v>352539.28399</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>251638.16502</v>
+        <v>255716.48791</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>371147.16204</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>356361.57344</v>
+        <v>357389.5524</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>516252.35784</v>
+        <v>519585.27001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>433690.6725100001</v>
+        <v>434286.59374</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>693370.2522400001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1376343.22145</v>
+        <v>1375439.88222</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1139958.72798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1137878.23707</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1917504.088</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>125488.27293</v>
@@ -1739,34 +1745,39 @@
         <v>182541.37345</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>128832.46864</v>
+        <v>136743.19292</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>174868.45268</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>213940.85078</v>
+        <v>214312.12697</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>359508.27441</v>
+        <v>364171.63796</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>333221.2075</v>
+        <v>333728.66115</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>442979.40088</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1275832.84014</v>
+        <v>1276368.75971</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>849385.16785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>851231.0007699999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1392152.41</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>952.77953</v>
@@ -1793,7 +1804,7 @@
         <v>320.71686</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>608.11501</v>
+        <v>608.1150099999999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1812.75469</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>830.9299999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5.54154</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>8612.133159999999</v>
@@ -1853,43 +1874,48 @@
         <v>8260.906730000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7116.469609999999</v>
+        <v>7116.46961</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>9170.78174</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8372.35413</v>
+        <v>8372.354130000002</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8876.348300000001</v>
+        <v>8909.761189999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>12657.8823</v>
+        <v>12793.03156</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11285.50744</v>
+        <v>11286.71318</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>14793.18735</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30164.6854</v>
+        <v>30402.33539</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>53932.75445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>53969.54795</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>53912.553</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>187.3458</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>568.97792</v>
+        <v>568.9779199999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>624.9410300000001</v>
@@ -1904,7 +1930,7 @@
         <v>815.82393</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>428.31459</v>
+        <v>3038.99014</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>334.02647</v>
@@ -1916,13 +1942,18 @@
         <v>1396.88829</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1167.86981</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1169.13993</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>6654.709</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>670.356</v>
@@ -1934,7 +1965,7 @@
         <v>41058.64402</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>578.75922</v>
+        <v>578.7592200000001</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>276.586</v>
@@ -1946,7 +1977,7 @@
         <v>656.523</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>600.7378500000001</v>
+        <v>600.73785</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>723.31817</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1080.32128</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5720.834</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>328.29134</v>
@@ -1970,7 +2006,7 @@
         <v>111.76802</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>477.57186</v>
+        <v>477.5718600000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>216.7871</v>
@@ -1982,10 +2018,10 @@
         <v>2289.68099</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1894.72087</v>
+        <v>1904.32084</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>770.4521500000001</v>
+        <v>770.45215</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>935.4959399999999</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>5743.31442</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>10841.965</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>99881.62266000001</v>
+        <v>99881.62265999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>93288.61511</v>
+        <v>93288.61510999998</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>111815.39095</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>101434.5634</v>
+        <v>109335.75482</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>130130.63477</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>161661.96281</v>
+        <v>161791.16797</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>294135.90803</v>
+        <v>294782.17874</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>260558.72073</v>
+        <v>260632.88889</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>361727.8178000001</v>
+        <v>361727.8178</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1157586.62916</v>
+        <v>1157680.91086</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>685709.6079399999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>685839.97169</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1195386.142</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>108.67083</v>
@@ -2063,7 +2109,7 @@
         <v>1904.29069</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1481.04801</v>
+        <v>1821.12776</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>593.1402800000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2590.74733</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5891.352</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>14.22352</v>
@@ -2111,13 +2162,18 @@
         <v>5.60486</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1506.41908</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>14727.30855</v>
@@ -2129,34 +2185,39 @@
         <v>20466.68926</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>15448.2098</v>
+        <v>15457.74266</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>32557.57515</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>36804.1714</v>
+        <v>37012.82954</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>45294.90914</v>
+        <v>46556.5772</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>55078.95403</v>
+        <v>55170.95403</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>62985.96453</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>83087.98155</v>
+        <v>83291.96943000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>97347.79793</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>97518.7844</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>112836.062</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>97462.73046999999</v>
@@ -2168,34 +2229,39 @@
         <v>195946.20081</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>98216.11499000002</v>
+        <v>103335.73247</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>258458.09659</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>208733.32067</v>
+        <v>208847.46832</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>418331.23192</v>
+        <v>422584.72879</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>419451.66055</v>
+        <v>419987.06438</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>475976.6643700001</v>
+        <v>475976.66437</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1600433.17385</v>
+        <v>1600461.44793</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>773143.5929399999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>775233.7217400001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1383282.263</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3858.32989</v>
@@ -2204,7 +2270,7 @@
         <v>3214.60129</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3717.02236</v>
+        <v>3717.022359999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>12078.5994</v>
@@ -2213,13 +2279,13 @@
         <v>7829.28441</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7069.43017</v>
+        <v>7069.430170000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7551.7858</v>
+        <v>7551.785800000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10513.52525</v>
+        <v>10524.10617</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>13871.91334</v>
@@ -2228,19 +2294,24 @@
         <v>23065.38988</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>30965.00991999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>30965.00992</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>26113.54</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>6824.84025</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3607.02761</v>
+        <v>3607.027610000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>8173.89906</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>22592.04347</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>25694.15</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>411.0145</v>
@@ -2285,7 +2361,7 @@
         <v>93.26241999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>91.15186000000001</v>
+        <v>91.15186</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>2077.29331</v>
@@ -2306,13 +2382,18 @@
         <v>0.32069</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>4170.9794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>7.585379999999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5711.641</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>78943.54359</v>
@@ -2324,34 +2405,39 @@
         <v>175159.88182</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>73087.15368999999</v>
+        <v>78050.57772999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>218928.1206</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>175442.81459</v>
+        <v>175556.96224</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>380867.20378</v>
+        <v>385120.70065</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>362639.16159</v>
+        <v>362861.55105</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>421991.26063</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1516161.79026</v>
+        <v>1516173.72144</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>678557.98358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>682564.6146699999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1289769.482</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>106.35031</v>
@@ -2375,22 +2461,27 @@
         <v>1005.25666</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>371.60142</v>
+        <v>667.6995400000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>770.4168500000001</v>
+        <v>770.41685</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>3067.05151</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1406.56189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1410.27069</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>5110.752</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5.87751</v>
@@ -2423,13 +2514,18 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
+        <v>1504.51058</v>
+      </c>
+      <c r="N42" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7312.77442</v>
@@ -2438,10 +2534,10 @@
         <v>6232.51794</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8292.870629999999</v>
+        <v>8292.870630000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5340.684240000001</v>
+        <v>5496.877680000001</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>16705.58213</v>
@@ -2453,22 +2549,27 @@
         <v>24269.06037</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>37169.37079</v>
+        <v>37175.70612</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>24322.28572</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>43540.17522999999</v>
+        <v>43556.51813</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>35451.01468</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36189.68703000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>30882.698</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>72859.43419</v>
@@ -2480,73 +2581,83 @@
         <v>91090.45207</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>80665.04776999999</v>
+        <v>81262.22889999999</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>116085.93541</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>113992.48928</v>
+        <v>114810.23968</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>189398.83384</v>
+        <v>190682.87678</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>181113.6982</v>
+        <v>181439.92133</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>222144.84787</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>501977.47979</v>
+        <v>502517.12969</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>409987.11753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>409914.79865</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>676131.262</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>67360.49356999999</v>
+        <v>67360.49357000001</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>49567.47792</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>82449.11992999999</v>
+        <v>82449.11993</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>77384.05937</v>
+        <v>77981.2405</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>107633.92502</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>106657.58766</v>
+        <v>107475.33806</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>166977.18356</v>
+        <v>168261.2265</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>162196.70897</v>
+        <v>162522.9321</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>198702.58311</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>414786.9486300001</v>
+        <v>415326.59853</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>354379.25434</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>354280.96418</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>556550.3419999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5498.94062</v>
@@ -2564,7 +2675,7 @@
         <v>8452.010390000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7334.901620000001</v>
+        <v>7334.901619999999</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>22421.65028</v>
@@ -2576,16 +2687,21 @@
         <v>23442.26476</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>87190.53116000003</v>
+        <v>87190.53116000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>55607.86319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>55633.83447</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>119580.92</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>120797.01942</v>
@@ -2597,34 +2713,39 @@
         <v>248044.00456</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>201589.4709</v>
+        <v>207861.71946</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>171471.58272</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>247576.61427</v>
+        <v>248043.97137</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>268030.56649</v>
+        <v>270489.3024</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>166346.52126</v>
+        <v>166588.26918</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>438228.14088</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>549765.40795</v>
+        <v>548830.0643099999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>806213.1853599999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>803960.71745</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1250242.973</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>32841.54499</v>
@@ -2636,37 +2757,42 @@
         <v>28165.1349</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>37586.25934</v>
+        <v>39303.28561</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>73619.38734999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>52887.66375</v>
+        <v>52963.29546000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>65005.37259</v>
+        <v>71110.60222999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>115451.69174</v>
+        <v>115477.14617</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>110550.95261</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>75734.73353</v>
+        <v>75786.92624</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>108961.4535</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>109155.76641</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>124151.397</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>635.34834</v>
+        <v>635.3483400000001</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>360.38595</v>
@@ -2696,13 +2822,18 @@
         <v>126.81464</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1387.58172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>154.24154</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3264.837</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>32206.19665</v>
@@ -2714,34 +2845,39 @@
         <v>27128.79016</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>37303.44132</v>
+        <v>39020.46759</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>73564.0319</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>52832.168</v>
+        <v>52907.79970999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>64801.32924000001</v>
+        <v>70906.55888</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>115267.09474</v>
+        <v>115292.54917</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>110090.73231</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>75607.91889</v>
+        <v>75660.11159999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>107573.87178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>109001.52487</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>120886.56</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23951.38573</v>
@@ -2753,34 +2889,39 @@
         <v>245764.34806</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>39497.03822</v>
+        <v>40734.9812</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>33675.89476</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>55093.05480999999</v>
+        <v>55094.46924</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>29086.78388</v>
+        <v>29588.36404</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>108569.03123</v>
+        <v>108793.26074</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>44871.39038</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>93570.13716</v>
+        <v>93683.41567</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>65029.55426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>65316.18801999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>61362.835</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2836.60705</v>
@@ -2813,13 +2954,18 @@
         <v>2265.83888</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2594.0313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2598.888</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9124.165999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3002.53509</v>
@@ -2852,13 +2998,18 @@
         <v>1994.25367</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>520.69731</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>522.7784300000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1349.376</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>18112.24359</v>
@@ -2870,34 +3021,39 @@
         <v>242905.36418</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>33462.21448</v>
+        <v>34700.15746</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>29260.35706</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>50634.13043</v>
+        <v>50635.54486</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25514.55628</v>
+        <v>26016.13644</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>100691.8146</v>
+        <v>100916.04411</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>42002.23523999999</v>
+        <v>42002.23524</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>89310.04461</v>
+        <v>89423.32312</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>61914.82565000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>62194.52159</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>50889.293</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>129687.17868</v>
@@ -2906,37 +3062,42 @@
         <v>111368.11529</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>30444.79140000001</v>
+        <v>30444.7914</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>199678.69202</v>
+        <v>206430.02387</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>211415.07531</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>245371.22321</v>
+        <v>245912.79759</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>303949.1552</v>
+        <v>312011.54059</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>173229.18177</v>
+        <v>173272.15461</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>503907.7031099999</v>
+        <v>503907.70311</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>531930.0043200001</v>
+        <v>530933.57488</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>850145.0845999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>847800.2958399999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1313031.535</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>26357.22964</v>
@@ -2945,37 +3106,42 @@
         <v>24186.41083</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>41839.79575</v>
+        <v>41839.79574999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>41136.274</v>
+        <v>42611.74812999999</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>40451.98901</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>50480.82595999999</v>
+        <v>50589.67563</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>63534.92883999999</v>
+        <v>64057.89844</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>48297.40166</v>
+        <v>48349.34222</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>71004.5658</v>
+        <v>71004.56580000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>105253.64668</v>
+        <v>105349.78522</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>123150.81299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>125145.68537</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>197490.96</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>103329.94904</v>
@@ -2987,31 +3153,34 @@
         <v>-11395.00435</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>158542.41802</v>
+        <v>163818.27574</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>170963.0863</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>194890.39725</v>
+        <v>195323.12196</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>240414.22636</v>
+        <v>247953.64215</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>124931.78011</v>
+        <v>124922.81239</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>432903.1373100001</v>
+        <v>432903.13731</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>426676.35764</v>
+        <v>425583.78966</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>726994.2716100002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>722654.6104700001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1115540.575</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1529</v>
@@ -3041,31 +3213,34 @@
         <v>1389</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G59" s="35" t="n">
         <v>1217</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1192</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1119</v>
+        <v>1204</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1258</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>